--- a/Checklist de criterios SEMAT no Scrum.xlsx
+++ b/Checklist de criterios SEMAT no Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="720" windowWidth="10005" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oportunidade" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="409">
   <si>
     <t>1 - Identificada</t>
   </si>
@@ -895,9 +895,6 @@
     <t>Funcionando bem</t>
   </si>
   <si>
-    <t>Provavelmente</t>
-  </si>
-  <si>
     <t>Reunião de Planejamento de Sprint</t>
   </si>
   <si>
@@ -964,15 +961,6 @@
     <t>Forma de Trabalho</t>
   </si>
   <si>
-    <t>Atendimento</t>
-  </si>
-  <si>
-    <t>Atendimento Parcial</t>
-  </si>
-  <si>
-    <t>Sem Atendimento</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1262,22 +1250,26 @@
   </si>
   <si>
     <t>Todas as tarefas importantes são administradas ou relacionadas com a preparação do próximo trabalho.</t>
+  </si>
+  <si>
+    <t>Atendido</t>
+  </si>
+  <si>
+    <t>Provavelmente Atende</t>
+  </si>
+  <si>
+    <t>Não Atendido</t>
+  </si>
+  <si>
+    <t>Critério</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1325,12 +1317,37 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,12 +1375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,119 +1418,134 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,10 +1571,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1586,7 +1612,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1628,7 +1654,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.63157894736842102</c:v>
@@ -1637,16 +1663,16 @@
                   <c:v>0.60606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58974358974358976</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92592592592592593</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63636363636363635</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,7 +1687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1703,25 +1729,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.31578947368421051</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31034482758620691</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21212121212121213</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1787,16 +1813,16 @@
                   <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10344827586206896</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,22 +1882,22 @@
                   <c:v>0.29166666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2413793103448276</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,11 +1913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45923712"/>
-        <c:axId val="45937792"/>
+        <c:axId val="43210240"/>
+        <c:axId val="43211776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45923712"/>
+        <c:axId val="43210240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1926,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45937792"/>
+        <c:crossAx val="43211776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45937792"/>
+        <c:axId val="43211776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45923712"/>
+        <c:crossAx val="43210240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,10 +1973,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1965,8 +1991,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Oportunidade</a:t>
+              <a:t>Oportunidade -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Scrum</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1988,7 +2019,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2046,7 +2077,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2067,7 +2098,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2115,7 +2146,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2136,7 +2167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2274,11 +2305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47416832"/>
-        <c:axId val="47418368"/>
+        <c:axId val="44639744"/>
+        <c:axId val="44641280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47416832"/>
+        <c:axId val="44639744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2318,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47418368"/>
+        <c:crossAx val="44641280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47418368"/>
+        <c:axId val="44641280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47416832"/>
+        <c:crossAx val="44639744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2334,10 +2365,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2352,7 +2383,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Stakeholders</a:t>
+              <a:t>Stakeholders - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2375,7 +2406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2444,7 +2475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2498,7 +2529,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2636,7 +2667,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,11 +2683,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49233280"/>
-        <c:axId val="49247360"/>
+        <c:axId val="44690816"/>
+        <c:axId val="44708992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49233280"/>
+        <c:axId val="44690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2696,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49247360"/>
+        <c:crossAx val="44708992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49247360"/>
+        <c:axId val="44708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2715,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49233280"/>
+        <c:crossAx val="44690816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,10 +2743,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2730,7 +2761,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Requisitos</a:t>
+              <a:t>Requisitos - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2753,7 +2784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2822,7 +2853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2891,7 +2922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3030,11 +3061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49362432"/>
-        <c:axId val="49363968"/>
+        <c:axId val="44746240"/>
+        <c:axId val="44747776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49362432"/>
+        <c:axId val="44746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3074,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49363968"/>
+        <c:crossAx val="44747776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3051,7 +3082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49363968"/>
+        <c:axId val="44747776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3093,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49362432"/>
+        <c:crossAx val="44746240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3090,10 +3121,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3108,7 +3139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Sistema de Software</a:t>
+              <a:t>Sistema de Software - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3131,7 +3162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3170,16 +3201,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.66666666666666663</c:v>
@@ -3200,7 +3231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3242,16 +3273,16 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3269,7 +3300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3308,7 +3339,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3377,19 +3408,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -3408,11 +3439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49429888"/>
-        <c:axId val="49435776"/>
+        <c:axId val="44780928"/>
+        <c:axId val="44815488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49429888"/>
+        <c:axId val="44780928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3452,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49435776"/>
+        <c:crossAx val="44815488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49435776"/>
+        <c:axId val="44815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49429888"/>
+        <c:crossAx val="44780928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3468,10 +3499,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3486,7 +3517,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Trabalho</a:t>
+              <a:t>Trabalho - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3509,7 +3540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3551,7 +3582,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
@@ -3578,7 +3609,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3620,13 +3651,13 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.66666666666666663</c:v>
@@ -3647,7 +3678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3692,16 +3723,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,19 +3789,19 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,11 +3817,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49497600"/>
-        <c:axId val="49499136"/>
+        <c:axId val="44910080"/>
+        <c:axId val="44911616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49497600"/>
+        <c:axId val="44910080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,7 +3830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49499136"/>
+        <c:crossAx val="44911616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3807,7 +3838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49499136"/>
+        <c:axId val="44911616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3849,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49497600"/>
+        <c:crossAx val="44910080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,10 +3877,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3864,7 +3895,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Forma de Trabalho</a:t>
+              <a:t>Forma de Trabalho - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3887,7 +3918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3926,7 +3957,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3935,13 +3966,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +3987,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3995,7 +4026,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4004,10 +4035,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4025,7 +4056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4148,7 +4179,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4164,11 +4195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49540480"/>
-        <c:axId val="49611904"/>
+        <c:axId val="44969344"/>
+        <c:axId val="44983424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49540480"/>
+        <c:axId val="44969344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49611904"/>
+        <c:crossAx val="44983424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4185,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49611904"/>
+        <c:axId val="44983424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4227,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49540480"/>
+        <c:crossAx val="44969344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4224,10 +4255,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="42"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4242,7 +4273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Equipe</a:t>
+              <a:t>Equipe - Scrum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4265,7 +4296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento</c:v>
+                  <c:v>Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4301,13 +4332,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
@@ -4328,7 +4359,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atendimento Parcial</c:v>
+                  <c:v>Provavelmente Atende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4364,13 +4395,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
@@ -4391,7 +4422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sem Atendimento</c:v>
+                  <c:v>Não Atendido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4427,7 +4458,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4436,10 +4467,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,7 +4521,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4499,10 +4530,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,11 +4549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49665536"/>
-        <c:axId val="49667072"/>
+        <c:axId val="45024768"/>
+        <c:axId val="45026304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49665536"/>
+        <c:axId val="45024768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,7 +4562,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49667072"/>
+        <c:crossAx val="45026304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4539,7 +4570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49667072"/>
+        <c:axId val="45026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,7 +4581,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49665536"/>
+        <c:crossAx val="45024768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,10 +4612,10 @@
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5114,25 +5145,25 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="139.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5141,10 +5172,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,10 +5183,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5163,20 +5194,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5185,10 +5216,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5196,21 +5227,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,10 +5249,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,20 +5260,20 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5260,10 +5291,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,10 +5302,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,10 +5313,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,20 +5324,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5318,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5326,10 +5357,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5337,10 +5368,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,10 +5388,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5368,18 +5399,18 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5411,13 +5442,13 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5691,25 +5722,25 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="154.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5718,10 +5749,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,10 +5760,10 @@
         <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,20 +5771,20 @@
         <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5762,10 +5793,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,10 +5804,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,10 +5815,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,20 +5826,20 @@
         <v>73</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5817,10 +5848,10 @@
         <v>75</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5828,10 +5859,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,20 +5870,20 @@
         <v>77</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5870,10 +5901,10 @@
         <v>80</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,10 +5912,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -5892,10 +5923,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,20 +5934,20 @@
         <v>83</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5925,10 +5956,10 @@
         <v>85</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,20 +5967,20 @@
         <v>86</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5958,10 +5989,10 @@
         <v>88</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,10 +6000,10 @@
         <v>89</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,25 +6023,25 @@
   </sheetPr>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="91.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
@@ -6039,13 +6070,13 @@
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
@@ -6057,13 +6088,13 @@
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -6078,10 +6109,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -6092,13 +6123,13 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4"/>
@@ -6114,10 +6145,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>301</v>
+        <v>405</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -6132,10 +6163,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -6150,10 +6181,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -6168,10 +6199,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
@@ -6186,10 +6217,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="2"/>
@@ -6204,10 +6235,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="2"/>
@@ -6222,10 +6253,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
@@ -6240,10 +6271,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
@@ -6264,13 +6295,13 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6"/>
@@ -6280,10 +6311,10 @@
         <v>45</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -6292,10 +6323,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -6304,10 +6335,10 @@
         <v>47</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -6316,10 +6347,10 @@
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -6328,10 +6359,10 @@
         <v>49</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -6340,10 +6371,10 @@
         <v>50</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -6352,10 +6383,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -6364,10 +6395,10 @@
         <v>52</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -6376,21 +6407,21 @@
         <v>53</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="6"/>
@@ -6400,10 +6431,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -6442,21 +6473,21 @@
         <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="6"/>
@@ -6486,28 +6517,28 @@
         <v>63</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>237</v>
@@ -6517,25 +6548,25 @@
     </row>
     <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D39" s="6"/>
     </row>
@@ -7859,25 +7890,25 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="130.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7886,7 +7917,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -7895,7 +7926,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -7904,10 +7935,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,10 +7946,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,7 +7957,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -7935,20 +7966,18 @@
         <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>287</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7957,7 +7986,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -7993,27 +8022,27 @@
         <v>102</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="B15" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8022,30 +8051,30 @@
         <v>104</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8053,19 +8082,19 @@
         <v>107</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8073,18 +8102,18 @@
         <v>109</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8093,7 +8122,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -8102,7 +8131,7 @@
         <v>112</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -8111,7 +8140,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -8120,41 +8149,41 @@
         <v>114</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8162,18 +8191,18 @@
         <v>118</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8230,26 +8259,26 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="44" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8258,10 +8287,10 @@
         <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,10 +8298,10 @@
         <v>156</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8289,10 +8318,10 @@
         <v>158</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8300,10 +8329,10 @@
         <v>159</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,20 +8349,20 @@
         <v>161</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8342,10 +8371,10 @@
         <v>163</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,10 +8382,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8364,7 +8393,7 @@
         <v>165</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -8373,19 +8402,19 @@
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8393,10 +8422,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,10 +8433,10 @@
         <v>169</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8415,10 +8444,10 @@
         <v>170</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8426,18 +8455,16 @@
         <v>171</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>402</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -8446,10 +8473,10 @@
         <v>173</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,20 +8484,20 @@
         <v>174</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8479,10 +8506,10 @@
         <v>176</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8490,10 +8517,10 @@
         <v>177</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8501,10 +8528,10 @@
         <v>178</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8512,18 +8539,18 @@
         <v>179</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8532,10 +8559,10 @@
         <v>181</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8543,7 +8570,7 @@
         <v>182</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" s="8"/>
     </row>
@@ -8552,10 +8579,10 @@
         <v>183</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8563,10 +8590,10 @@
         <v>184</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,10 +8601,10 @@
         <v>185</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8585,7 +8612,7 @@
         <v>186</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C33" s="8"/>
     </row>
@@ -8594,32 +8621,32 @@
         <v>187</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8627,10 +8654,10 @@
         <v>189</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8638,20 +8665,20 @@
         <v>190</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8660,10 +8687,10 @@
         <v>192</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8671,10 +8698,10 @@
         <v>193</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8682,7 +8709,7 @@
         <v>194</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -8700,7 +8727,7 @@
         <v>196</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C44" s="9"/>
     </row>
@@ -8709,10 +8736,10 @@
         <v>197</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8727,49 +8754,49 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="120" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,10 +8804,10 @@
         <v>126</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8792,15 +8819,15 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8808,24 +8835,24 @@
         <v>129</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>131</v>
       </c>
@@ -8833,18 +8860,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8852,21 +8879,21 @@
         <v>133</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -8874,43 +8901,43 @@
         <v>135</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8918,10 +8945,10 @@
         <v>139</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8929,10 +8956,10 @@
         <v>140</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8940,10 +8967,10 @@
         <v>141</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8951,10 +8978,10 @@
         <v>142</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -8962,32 +8989,32 @@
         <v>143</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8995,10 +9022,10 @@
         <v>146</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -9006,20 +9033,20 @@
         <v>147</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9028,10 +9055,10 @@
         <v>149</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -9039,10 +9066,10 @@
         <v>150</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9050,10 +9077,10 @@
         <v>151</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -9061,20 +9088,20 @@
         <v>152</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9083,21 +9110,19 @@
         <v>238</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>383</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -9112,26 +9137,26 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A33:C34"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="56" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9140,21 +9165,21 @@
         <v>199</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9162,7 +9187,7 @@
         <v>201</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -9171,10 +9196,10 @@
         <v>202</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9182,32 +9207,32 @@
         <v>203</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9215,21 +9240,21 @@
         <v>206</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9237,10 +9262,10 @@
         <v>208</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9248,20 +9273,20 @@
         <v>209</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9270,21 +9295,21 @@
         <v>211</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9292,10 +9317,10 @@
         <v>213</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9303,10 +9328,10 @@
         <v>214</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9314,10 +9339,10 @@
         <v>215</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9325,21 +9350,21 @@
         <v>216</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -9347,42 +9372,42 @@
         <v>218</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9391,10 +9416,10 @@
         <v>222</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9402,10 +9427,10 @@
         <v>223</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9413,10 +9438,10 @@
         <v>224</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9424,32 +9449,32 @@
         <v>225</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,21 +9482,21 @@
         <v>228</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>229</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9479,29 +9504,29 @@
         <v>230</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9510,7 +9535,7 @@
         <v>233</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C36" s="9"/>
     </row>
@@ -9519,7 +9544,7 @@
         <v>234</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="9"/>
     </row>
@@ -9541,2354 +9566,2369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="104" style="40" customWidth="1"/>
+    <col min="11" max="11" width="104" style="33" customWidth="1"/>
     <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
     <col min="14" max="14" width="29.7109375" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="47">
         <f>SUM(B3:B8)</f>
-        <v>11</v>
-      </c>
-      <c r="C2" s="22">
+        <v>10</v>
+      </c>
+      <c r="C2" s="47">
         <f>SUM(C3:C8)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="22">
+        <v>6</v>
+      </c>
+      <c r="D2" s="47">
         <f>SUM(D3:D8)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="47">
         <f>SUM(E3:E8)</f>
         <v>7</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="33" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="34">
-        <v>11</v>
-      </c>
-      <c r="M2" s="34">
-        <v>5</v>
-      </c>
-      <c r="N2" s="34">
+      <c r="L2" s="39">
+        <f>B2</f>
+        <v>10</v>
+      </c>
+      <c r="M2" s="39">
+        <f t="shared" ref="M2:O2" si="0">C2</f>
+        <v>6</v>
+      </c>
+      <c r="N2" s="39">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="39">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P2" s="37">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="47">
+      <c r="P2" s="45">
         <f>SUM(L2:O2)</f>
         <v>24</v>
       </c>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="49">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="D3" s="49">
+        <v>0</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
         <f>SUM(B3:E3)</f>
         <v>3</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="50">
         <f>B3/F3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="50">
         <f>C3/F3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="50">
         <f>D3/F3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="50">
         <f>E3/F3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="39">
+        <f>B9</f>
         <v>12</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="39">
+        <f t="shared" ref="M3:O3" si="1">C9</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="45">
+        <f t="shared" ref="P3:P8" si="2">SUM(L3:O3)</f>
+        <v>19</v>
+      </c>
+      <c r="Q3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="49">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49">
+        <v>2</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <f t="shared" ref="F4:F8" si="3">SUM(B4:E4)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="34">
-        <v>0</v>
-      </c>
-      <c r="O3" s="34">
-        <v>2</v>
-      </c>
-      <c r="P3" s="37">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="47">
-        <f t="shared" ref="Q3:Q8" si="0">SUM(L3:O3)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="G4" s="50">
+        <f t="shared" ref="G4:G8" si="4">B4/F4</f>
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="50">
+        <f t="shared" ref="H4:H8" si="5">C4/F4</f>
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="50">
+        <f t="shared" ref="I4:I8" si="6">D4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <f t="shared" ref="J4:J8" si="7">E4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="42">
+        <f>B16</f>
+        <v>20</v>
+      </c>
+      <c r="M4" s="42">
+        <f t="shared" ref="M4:O4" si="8">C16</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="42">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="P4" s="45">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:F8" si="1">SUM(B4:E4)</f>
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G4" s="44">
-        <f t="shared" ref="G4:G8" si="2">B4/F4</f>
+      <c r="G5" s="50">
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="H4" s="44">
-        <f t="shared" ref="H4:H8" si="3">C4/F4</f>
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="44">
-        <f t="shared" ref="I4:I8" si="4">D4/F4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="44">
-        <f t="shared" ref="J4:J8" si="5">E4/F4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="34">
-        <v>20</v>
-      </c>
-      <c r="M4" s="34">
-        <v>5</v>
-      </c>
-      <c r="N4" s="34">
-        <v>1</v>
-      </c>
-      <c r="O4" s="34">
-        <v>7</v>
-      </c>
-      <c r="P4" s="37">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="47">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G5" s="44">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="44">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="44">
+      <c r="H5" s="50">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="I5" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="34">
-        <v>10</v>
-      </c>
-      <c r="M5" s="34">
-        <v>9</v>
-      </c>
-      <c r="N5" s="34">
+      <c r="L5" s="42">
+        <f>B23</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" ref="M5:O5" si="9">C23</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="42">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="P5" s="45">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="O5" s="34">
-        <v>7</v>
-      </c>
-      <c r="P5" s="37">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="47">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="49">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="D6" s="49">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G6" s="44">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H6" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
+      <c r="G6" s="50">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J6" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="50">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="I6" s="50">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K6" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="34">
-        <v>23</v>
-      </c>
-      <c r="M6" s="34">
-        <v>9</v>
-      </c>
-      <c r="N6" s="34">
+      <c r="L6" s="43">
+        <f>B30</f>
+        <v>21</v>
+      </c>
+      <c r="M6" s="43">
+        <f t="shared" ref="M6:O6" si="10">C30</f>
+        <v>6</v>
+      </c>
+      <c r="N6" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="43">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="P6" s="45">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="49">
+        <v>0</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <v>3</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="L7" s="43">
+        <f>B37</f>
+        <v>21</v>
+      </c>
+      <c r="M7" s="43">
+        <f t="shared" ref="M7:O7" si="11">C37</f>
         <v>4</v>
       </c>
-      <c r="O6" s="34">
-        <v>3</v>
-      </c>
-      <c r="P6" s="37">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="47">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="N7" s="43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <v>2</v>
+      </c>
+      <c r="F8" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="44">
+      <c r="H8" s="50">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="L7" s="34">
-        <v>25</v>
-      </c>
-      <c r="M7" s="34">
-        <v>1</v>
-      </c>
-      <c r="N7" s="34">
-        <v>0</v>
-      </c>
-      <c r="O7" s="34">
-        <v>1</v>
-      </c>
-      <c r="P7" s="37">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="47">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="44">
+      <c r="K8" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="43">
+        <f>B44</f>
+        <v>18</v>
+      </c>
+      <c r="M8" s="43">
+        <f t="shared" ref="M8:O8" si="12">C44</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="43">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="44">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L8" s="34">
-        <v>21</v>
-      </c>
-      <c r="M8" s="34">
-        <v>7</v>
-      </c>
-      <c r="N8" s="34">
-        <v>4</v>
-      </c>
-      <c r="O8" s="34">
-        <v>1</v>
-      </c>
-      <c r="P8" s="37">
         <v>33</v>
       </c>
-      <c r="Q8" s="47">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="Q8" s="38"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="47">
         <f>SUM(B10:B15)</f>
         <v>12</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="47">
         <f>SUM(C10:C15)</f>
-        <v>5</v>
-      </c>
-      <c r="D9" s="22">
+        <v>6</v>
+      </c>
+      <c r="D9" s="47">
         <f>SUM(D10:D15)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="47">
         <f>SUM(E10:E15)</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="49">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="C10" s="49">
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="49">
         <f>SUM(B10:E10)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="50">
         <f>B10/F10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="50">
         <f>C10/F10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="44">
-        <f t="shared" ref="I10:I15" si="6">D10/F10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="44">
-        <f t="shared" ref="J10:J15" si="7">E10/F10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I10" s="50">
+        <f t="shared" ref="I10:I15" si="13">D10/F10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" ref="J10:J15" si="14">E10/F10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="49">
         <v>3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" ref="F11:F15" si="8">SUM(B11:E11)</f>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" ref="F11:F15" si="15">SUM(B11:E11)</f>
         <v>4</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="50">
         <f>B11/F11</f>
         <v>0.75</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="50">
         <f>C11/F11</f>
         <v>0.25</v>
       </c>
-      <c r="I11" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="33" t="s">
+      <c r="I11" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="40">
         <f>L2/P2</f>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M11" s="38">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M11" s="40">
         <f>M2/P2</f>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="N11" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="40">
         <f>N2/P2</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="40">
         <f>O2/P2</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="49">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="49">
         <v>2</v>
       </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="8"/>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G12" s="44">
-        <f t="shared" ref="G12:G15" si="9">B12/F12</f>
+      <c r="G12" s="50">
+        <f t="shared" ref="G12:G15" si="16">B12/F12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H12" s="44">
-        <f t="shared" ref="H12:H15" si="10">C12/F12</f>
+      <c r="H12" s="50">
+        <f t="shared" ref="H12:H15" si="17">C12/F12</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I12" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="33" t="s">
+      <c r="I12" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="L12" s="38">
-        <f t="shared" ref="L12:L17" si="11">L3/P3</f>
+      <c r="L12" s="40">
+        <f t="shared" ref="L12:L17" si="18">L3/P3</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="M12" s="38">
-        <f t="shared" ref="M12:M17" si="12">M3/P3</f>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" ref="N12:N17" si="13">N3/P3</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" ref="O12:O17" si="14">O3/P3</f>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M12" s="40">
+        <f t="shared" ref="M12:M17" si="19">M3/P3</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" ref="N12:N17" si="20">N3/P3</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" ref="O12:O17" si="21">O3/P3</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="49">
         <v>2</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="49">
         <v>2</v>
       </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="49">
         <v>1</v>
       </c>
-      <c r="F13" s="16">
-        <f t="shared" si="8"/>
+      <c r="F13" s="49">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="G13" s="44">
-        <f t="shared" si="9"/>
+      <c r="G13" s="50">
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="H13" s="44">
-        <f t="shared" si="10"/>
+      <c r="H13" s="50">
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
-      <c r="I13" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="44">
-        <f t="shared" si="7"/>
+      <c r="I13" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="41">
         <f>L4/P4</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="M13" s="38">
-        <f t="shared" si="12"/>
+      <c r="M13" s="41">
+        <f t="shared" si="19"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="41">
+        <f t="shared" si="20"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" si="21"/>
+        <v>0.21212121212121213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="49">
+        <v>2</v>
+      </c>
+      <c r="C14" s="49">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="50">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="50">
         <f t="shared" si="13"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="O13" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
         <f t="shared" si="14"/>
-        <v>0.21212121212121213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="18"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="19"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="21"/>
+        <v>0.75862068965517238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="49">
+        <v>1</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="44">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="38">
-        <f t="shared" si="11"/>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="M14" s="38">
-        <f t="shared" si="12"/>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="N14" s="38">
+      <c r="G15" s="50">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="50">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="50">
         <f t="shared" si="13"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="O14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50">
         <f t="shared" si="14"/>
-        <v>0.2413793103448276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="16">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G15" s="44">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="44">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="38">
-        <f t="shared" si="11"/>
-        <v>0.58974358974358976</v>
-      </c>
-      <c r="M15" s="38">
-        <f t="shared" si="12"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="N15" s="38">
-        <f t="shared" si="13"/>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="O15" s="38">
-        <f t="shared" si="14"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="44">
+        <f t="shared" si="18"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" si="19"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N15" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="44">
+        <f t="shared" si="21"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="51">
         <f>SUM(B17:B22)</f>
         <v>20</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="51">
         <f>SUM(C17:C22)</f>
         <v>5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="51">
         <f>SUM(D17:D22)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="51">
         <f>SUM(E17:E22)</f>
         <v>7</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="33" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="L16" s="38">
-        <f t="shared" si="11"/>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="M16" s="38">
-        <f t="shared" si="12"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="N16" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="38">
-        <f t="shared" si="14"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="L16" s="44">
+        <f t="shared" si="18"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M16" s="44">
+        <f t="shared" si="19"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="N16" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="44">
+        <f t="shared" si="21"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="49">
         <v>3</v>
       </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0</v>
+      </c>
+      <c r="E17" s="49">
         <v>1</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="49">
         <f>SUM(B17:E17)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="50">
         <f>B17/F17</f>
         <v>0.75</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="50">
         <f>C17/F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="50">
         <f>D17/F17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="50">
         <f>E17/F17</f>
         <v>0.25</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="38">
-        <f t="shared" si="11"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="M17" s="38">
-        <f t="shared" si="12"/>
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="N17" s="38">
-        <f t="shared" si="13"/>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="O17" s="38">
-        <f t="shared" si="14"/>
-        <v>3.0303030303030304E-2</v>
+      <c r="L17" s="44">
+        <f t="shared" si="18"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="M17" s="44">
+        <f t="shared" si="19"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="N17" s="44">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="44">
+        <f t="shared" si="21"/>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="49">
         <v>6</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="49">
         <v>2</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="49">
         <v>1</v>
       </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" ref="F18:F22" si="15">SUM(B18:E18)</f>
+      <c r="E18" s="49">
+        <v>0</v>
+      </c>
+      <c r="F18" s="49">
+        <f t="shared" ref="F18:F22" si="22">SUM(B18:E18)</f>
         <v>9</v>
       </c>
-      <c r="G18" s="44">
-        <f t="shared" ref="G18:G22" si="16">B18/F18</f>
+      <c r="G18" s="50">
+        <f t="shared" ref="G18:G22" si="23">B18/F18</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H18" s="44">
-        <f t="shared" ref="H18:H22" si="17">C18/F18</f>
+      <c r="H18" s="50">
+        <f t="shared" ref="H18:H22" si="24">C18/F18</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="I18" s="44">
-        <f t="shared" ref="I18:I22" si="18">D18/F18</f>
+      <c r="I18" s="50">
+        <f t="shared" ref="I18:I22" si="25">D18/F18</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J18" s="44">
-        <f t="shared" ref="J18:J22" si="19">E18/F18</f>
+      <c r="J18" s="50">
+        <f t="shared" ref="J18:J22" si="26">E18/F18</f>
         <v>0</v>
       </c>
       <c r="K18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="49">
         <v>6</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="49">
         <v>3</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="15"/>
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <v>0</v>
+      </c>
+      <c r="F19" s="49">
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="G19" s="44">
-        <f t="shared" si="16"/>
+      <c r="G19" s="50">
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H19" s="44">
-        <f t="shared" si="17"/>
+      <c r="H19" s="50">
+        <f t="shared" si="24"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I19" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="44">
-        <f t="shared" si="19"/>
+      <c r="I19" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="50">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="49">
         <v>2</v>
       </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="C20" s="49">
+        <v>0</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0</v>
+      </c>
+      <c r="E20" s="49">
         <v>3</v>
       </c>
-      <c r="F20" s="16">
-        <f t="shared" si="15"/>
+      <c r="F20" s="49">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="G20" s="44">
-        <f t="shared" si="16"/>
+      <c r="G20" s="50">
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
-      <c r="H20" s="44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="44">
-        <f t="shared" si="19"/>
+      <c r="H20" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="50">
+        <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
       <c r="K20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="49">
         <v>1</v>
       </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="C21" s="49">
+        <v>0</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0</v>
+      </c>
+      <c r="E21" s="49">
         <v>2</v>
       </c>
-      <c r="F21" s="16">
-        <f t="shared" si="15"/>
+      <c r="F21" s="49">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="G21" s="44">
-        <f t="shared" si="16"/>
+      <c r="G21" s="50">
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H21" s="44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="44">
-        <f t="shared" si="19"/>
+      <c r="H21" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="50">
+        <f t="shared" si="26"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="49">
         <v>2</v>
       </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="C22" s="49">
+        <v>0</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0</v>
+      </c>
+      <c r="E22" s="49">
         <v>1</v>
       </c>
-      <c r="F22" s="16">
-        <f t="shared" si="15"/>
+      <c r="F22" s="49">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="G22" s="44">
-        <f t="shared" si="16"/>
+      <c r="G22" s="50">
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H22" s="44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="44">
-        <f t="shared" si="19"/>
+      <c r="H22" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="50">
+        <f t="shared" si="26"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K22"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="40"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="51">
         <f>SUM(B24:B29)</f>
-        <v>10</v>
-      </c>
-      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+      <c r="C23" s="51">
         <f>SUM(C24:C29)</f>
-        <v>9</v>
-      </c>
-      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="51">
         <f>SUM(D24:D29)</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
         <f>SUM(E24:E29)</f>
-        <v>7</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
       <c r="K23"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="40"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="16">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="49">
+        <v>0</v>
+      </c>
+      <c r="C24" s="49">
         <v>2</v>
       </c>
-      <c r="D24" s="16">
-        <v>3</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="D24" s="49">
+        <v>0</v>
+      </c>
+      <c r="E24" s="49">
+        <v>4</v>
+      </c>
+      <c r="F24" s="49">
         <f>SUM(B24:E24)</f>
         <v>6</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="50">
         <f>B24/F24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
         <f>C24/F24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="50">
         <f>D24/F24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="50">
+        <f>E24/F24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="49">
+        <v>0</v>
+      </c>
+      <c r="C25" s="49">
+        <v>0</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0</v>
+      </c>
+      <c r="E25" s="49">
+        <v>6</v>
+      </c>
+      <c r="F25" s="49">
+        <f t="shared" ref="F25:F29" si="27">SUM(B25:E25)</f>
+        <v>6</v>
+      </c>
+      <c r="G25" s="50">
+        <f t="shared" ref="G25:G29" si="28">B25/F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="50">
+        <f t="shared" ref="H25:H29" si="29">C25/F25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="50">
+        <f t="shared" ref="I25:I29" si="30">D25/F25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="50">
+        <f t="shared" ref="J25:J29" si="31">E25/F25</f>
+        <v>1</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="49">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49">
+        <v>0</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0</v>
+      </c>
+      <c r="E26" s="49">
+        <v>3</v>
+      </c>
+      <c r="F26" s="49">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="G26" s="50">
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
-      <c r="J24" s="44">
-        <f>E24/F24</f>
-        <v>0</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="40"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="H26" s="50">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="50">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="49">
+        <v>0</v>
+      </c>
+      <c r="C27" s="49">
+        <v>0</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="49">
+        <v>4</v>
+      </c>
+      <c r="F27" s="49">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="50">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="49">
+        <v>2</v>
+      </c>
+      <c r="C28" s="49">
+        <v>0</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0</v>
+      </c>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49">
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>3</v>
-      </c>
-      <c r="F25" s="16">
-        <f t="shared" ref="F25:F29" si="20">SUM(B25:E25)</f>
+      <c r="G28" s="50">
+        <f t="shared" si="28"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="50">
+        <f t="shared" si="31"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="49">
+        <v>0</v>
+      </c>
+      <c r="C29" s="49">
+        <v>0</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0</v>
+      </c>
+      <c r="E29" s="49">
+        <v>4</v>
+      </c>
+      <c r="F29" s="49">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="50">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="50">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="50">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="52">
+        <f>SUM(B31:B36)</f>
+        <v>21</v>
+      </c>
+      <c r="C30" s="52">
+        <f>SUM(C31:C36)</f>
         <v>6</v>
       </c>
-      <c r="G25" s="44">
-        <f t="shared" ref="G25:G29" si="21">B25/F25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <f t="shared" ref="H25:H29" si="22">C25/F25</f>
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" ref="I25:I29" si="23">D25/F25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <f t="shared" ref="J25:J29" si="24">E25/F25</f>
-        <v>0.5</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" s="16">
+      <c r="D30" s="52">
+        <f>SUM(D31:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="52">
+        <f>SUM(E31:E36)</f>
+        <v>12</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="49">
         <v>4</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C31" s="49">
+        <v>1</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0</v>
+      </c>
+      <c r="E31" s="49">
         <v>2</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="G26" s="44">
-        <f t="shared" si="21"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H26" s="44">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I26" s="44">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="44">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="16">
-        <v>3</v>
-      </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="44">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="44">
-        <f t="shared" si="22"/>
-        <v>0.25</v>
-      </c>
-      <c r="I27" s="44">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="16">
-        <v>2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="44">
-        <f t="shared" si="21"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H28" s="44">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I28" s="44">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="44">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K28"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="40"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>4</v>
-      </c>
-      <c r="F29" s="16">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="44">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="44">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="44">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="44">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="13">
-        <f>SUM(B31:B36)</f>
-        <v>23</v>
-      </c>
-      <c r="C30" s="13">
-        <f>SUM(C31:C36)</f>
-        <v>9</v>
-      </c>
-      <c r="D30" s="13">
-        <f>SUM(D31:D36)</f>
-        <v>4</v>
-      </c>
-      <c r="E30" s="13">
-        <f>SUM(E31:E36)</f>
-        <v>3</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>275</v>
-      </c>
-      <c r="B31" s="16">
-        <v>4</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>2</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="F31" s="49">
         <f>SUM(B31:E31)</f>
         <v>7</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="50">
         <f>B31/F31</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="50">
         <f>C31/F31</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="50">
         <f>D31/F31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="50">
         <f>E31/F31</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="16">
-        <v>9</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="B32" s="49">
+        <v>7</v>
+      </c>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
+      <c r="D32" s="49">
+        <v>0</v>
+      </c>
+      <c r="E32" s="49">
+        <v>4</v>
+      </c>
+      <c r="F32" s="49">
+        <f t="shared" ref="F32:F36" si="32">SUM(B32:E32)</f>
+        <v>12</v>
+      </c>
+      <c r="G32" s="50">
+        <f t="shared" ref="G32:G36" si="33">B32/F32</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" ref="H32:H36" si="34">C32/F32</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I32" s="50">
+        <f t="shared" ref="I32:I36" si="35">D32/F32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="50">
+        <f t="shared" ref="J32:J36" si="36">E32/F32</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="49">
         <v>3</v>
       </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <f t="shared" ref="F32:F36" si="25">SUM(B32:E32)</f>
-        <v>12</v>
-      </c>
-      <c r="G32" s="44">
-        <f t="shared" ref="G32:G36" si="26">B32/F32</f>
+      <c r="C33" s="49">
+        <v>0</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0</v>
+      </c>
+      <c r="E33" s="49">
+        <v>1</v>
+      </c>
+      <c r="F33" s="49">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="50">
+        <f t="shared" si="33"/>
         <v>0.75</v>
       </c>
-      <c r="H32" s="44">
-        <f t="shared" ref="H32:H36" si="27">C32/F32</f>
+      <c r="H33" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="50">
+        <f t="shared" si="36"/>
         <v>0.25</v>
       </c>
-      <c r="I32" s="44">
-        <f t="shared" ref="I32:I36" si="28">D32/F32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="44">
-        <f t="shared" ref="J32:J36" si="29">E32/F32</f>
-        <v>0</v>
-      </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="16">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="49">
         <v>3</v>
       </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C34" s="49">
+        <v>2</v>
+      </c>
+      <c r="D34" s="49">
+        <v>0</v>
+      </c>
+      <c r="E34" s="49">
+        <v>2</v>
+      </c>
+      <c r="F34" s="49">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="G34" s="50">
+        <f t="shared" si="33"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H34" s="50">
+        <f t="shared" si="34"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I34" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="50">
+        <f t="shared" si="36"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="49">
         <v>1</v>
       </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="25"/>
+      <c r="C35" s="49">
+        <v>2</v>
+      </c>
+      <c r="D35" s="49">
+        <v>0</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="F35" s="49">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="50">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="34"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I35" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="49">
+        <v>3</v>
+      </c>
+      <c r="C36" s="49">
+        <v>0</v>
+      </c>
+      <c r="D36" s="49">
+        <v>0</v>
+      </c>
+      <c r="E36" s="49">
+        <v>3</v>
+      </c>
+      <c r="F36" s="49">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="G36" s="50">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="50">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="50">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="50">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="52">
+        <f>SUM(B38:B43)</f>
+        <v>21</v>
+      </c>
+      <c r="C37" s="52">
+        <f>SUM(C38:C43)</f>
         <v>4</v>
       </c>
-      <c r="G33" s="44">
-        <f t="shared" si="26"/>
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="44">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="44">
-        <f t="shared" si="28"/>
-        <v>0.25</v>
-      </c>
-      <c r="J33" s="44">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="16">
-        <v>3</v>
-      </c>
-      <c r="C34" s="16">
-        <v>3</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="D37" s="52">
+        <f>SUM(D38:D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="52">
+        <f>SUM(E38:E43)</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="49">
+        <v>4</v>
+      </c>
+      <c r="C38" s="49">
         <v>1</v>
       </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="G34" s="44">
-        <f t="shared" si="26"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="H34" s="44">
-        <f t="shared" si="27"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="I34" s="44">
-        <f t="shared" si="28"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J34" s="44">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" s="16">
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+      <c r="E38" s="49">
         <v>1</v>
       </c>
-      <c r="C35" s="16">
-        <v>2</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="44">
-        <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H35" s="44">
-        <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I35" s="44">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="44">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" s="16">
-        <v>3</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-      <c r="D36" s="16">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="G36" s="44">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="44">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="44">
-        <f t="shared" si="28"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J36" s="44">
-        <f t="shared" si="29"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="13">
-        <f>SUM(B38:B43)</f>
-        <v>25</v>
-      </c>
-      <c r="C37" s="13">
-        <f>SUM(C38:C43)</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
-        <f>SUM(D38:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="13">
-        <f>SUM(E38:E43)</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="16">
-        <v>5</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16">
+      <c r="F38" s="49">
         <f>SUM(B38:E38)</f>
         <v>6</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="50">
         <f>B38/F38</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H38" s="44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H38" s="50">
         <f>C38/F38</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="44">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I38" s="50">
         <f>D38/F38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="50">
         <f>E38/F38</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="K38"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="49">
         <v>6</v>
       </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" ref="F39:F43" si="30">SUM(B39:E39)</f>
+      <c r="C39" s="49">
+        <v>0</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+      <c r="E39" s="49">
+        <v>0</v>
+      </c>
+      <c r="F39" s="49">
+        <f t="shared" ref="F39:F43" si="37">SUM(B39:E39)</f>
         <v>6</v>
       </c>
-      <c r="G39" s="44">
-        <f t="shared" ref="G39:G43" si="31">B39/F39</f>
+      <c r="G39" s="50">
+        <f t="shared" ref="G39:G43" si="38">B39/F39</f>
         <v>1</v>
       </c>
-      <c r="H39" s="44">
-        <f t="shared" ref="H39:H43" si="32">C39/F39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="44">
-        <f t="shared" ref="I39:I43" si="33">D39/F39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="44">
-        <f t="shared" ref="J39:J43" si="34">E39/F39</f>
+      <c r="H39" s="50">
+        <f t="shared" ref="H39:H43" si="39">C39/F39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="50">
+        <f t="shared" ref="I39:I43" si="40">D39/F39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="50">
+        <f t="shared" ref="J39:J43" si="41">E39/F39</f>
         <v>0</v>
       </c>
       <c r="K39"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="49">
         <v>6</v>
       </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="16">
-        <v>0</v>
-      </c>
-      <c r="F40" s="16">
-        <f t="shared" si="30"/>
+      <c r="C40" s="49">
+        <v>0</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+      <c r="E40" s="49">
+        <v>0</v>
+      </c>
+      <c r="F40" s="49">
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="G40" s="44">
-        <f t="shared" si="31"/>
+      <c r="G40" s="50">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="H40" s="44">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="44">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="44">
-        <f t="shared" si="34"/>
+      <c r="H40" s="50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="50">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="50">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="49">
+        <v>2</v>
+      </c>
+      <c r="C41" s="49">
+        <v>1</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0</v>
+      </c>
+      <c r="F41" s="49">
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
-        <v>0</v>
-      </c>
-      <c r="F41" s="16">
-        <f t="shared" si="30"/>
+      <c r="G41" s="50">
+        <f t="shared" si="38"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H41" s="50">
+        <f t="shared" si="39"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I41" s="50">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="50">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="49">
+        <v>2</v>
+      </c>
+      <c r="C42" s="49">
+        <v>2</v>
+      </c>
+      <c r="D42" s="49">
+        <v>0</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="50">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="50">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="50">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="50">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="49">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49">
+        <v>0</v>
+      </c>
+      <c r="D43" s="49">
+        <v>0</v>
+      </c>
+      <c r="E43" s="49">
+        <v>1</v>
+      </c>
+      <c r="F43" s="49">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="G43" s="50">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="50">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="50">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="52">
+        <f>SUM(B45:B49)</f>
+        <v>18</v>
+      </c>
+      <c r="C44" s="52">
+        <f>SUM(C45:C49)</f>
+        <v>10</v>
+      </c>
+      <c r="D44" s="52">
+        <f>SUM(D45:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="52">
+        <f>SUM(E45:E49)</f>
+        <v>5</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="49">
+        <v>7</v>
+      </c>
+      <c r="C45" s="49">
         <v>3</v>
       </c>
-      <c r="G41" s="44">
-        <f t="shared" si="31"/>
+      <c r="D45" s="49">
+        <v>0</v>
+      </c>
+      <c r="E45" s="49">
         <v>1</v>
       </c>
-      <c r="H41" s="44">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="44">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="44">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>285</v>
-      </c>
-      <c r="B42" s="16">
-        <v>3</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16">
-        <v>0</v>
-      </c>
-      <c r="F42" s="16">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="G42" s="44">
-        <f t="shared" si="31"/>
-        <v>0.75</v>
-      </c>
-      <c r="H42" s="44">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="I42" s="44">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="44">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="16">
-        <v>2</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="G43" s="44">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H43" s="44">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="44">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="44">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="13">
-        <f>SUM(B45:B49)</f>
-        <v>21</v>
-      </c>
-      <c r="C44" s="13">
-        <f>SUM(C45:C49)</f>
-        <v>7</v>
-      </c>
-      <c r="D44" s="13">
-        <f>SUM(D45:D49)</f>
-        <v>4</v>
-      </c>
-      <c r="E44" s="13">
-        <f>SUM(E45:E49)</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="16">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16">
-        <v>2</v>
-      </c>
-      <c r="D45" s="16">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
+      <c r="F45" s="49">
         <f>SUM(B45:E45)</f>
         <v>11</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="50">
         <f>B45/F45</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="H45" s="44">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H45" s="50">
         <f>C45/F45</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I45" s="44">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="I45" s="50">
         <f>D45/F45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="50">
+        <f>E45/F45</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J45" s="44">
-        <f>E45/F45</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="16"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="49">
         <v>8</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="49">
         <v>2</v>
       </c>
-      <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="16">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16">
-        <f t="shared" ref="F46:F49" si="35">SUM(B46:E46)</f>
+      <c r="D46" s="49">
+        <v>0</v>
+      </c>
+      <c r="E46" s="49">
+        <v>0</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" ref="F46:F49" si="42">SUM(B46:E46)</f>
         <v>10</v>
       </c>
-      <c r="G46" s="44">
-        <f t="shared" ref="G46:G49" si="36">B46/F46</f>
+      <c r="G46" s="50">
+        <f t="shared" ref="G46:G49" si="43">B46/F46</f>
         <v>0.8</v>
       </c>
-      <c r="H46" s="44">
-        <f t="shared" ref="H46:H49" si="37">C46/F46</f>
+      <c r="H46" s="50">
+        <f t="shared" ref="H46:H49" si="44">C46/F46</f>
         <v>0.2</v>
       </c>
-      <c r="I46" s="44">
-        <f t="shared" ref="I46:I49" si="38">D46/F46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="44">
-        <f t="shared" ref="J46:J49" si="39">E46/F46</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="16"/>
+      <c r="I46" s="50">
+        <f t="shared" ref="I46:I49" si="45">D46/F46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="50">
+        <f t="shared" ref="J46:J49" si="46">E46/F46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="49">
+        <v>1</v>
+      </c>
+      <c r="C47" s="49">
         <v>3</v>
       </c>
-      <c r="C47" s="16">
+      <c r="D47" s="49">
+        <v>0</v>
+      </c>
+      <c r="E47" s="49">
+        <v>0</v>
+      </c>
+      <c r="F47" s="49">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G47" s="50">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="50">
+        <f t="shared" si="44"/>
+        <v>0.75</v>
+      </c>
+      <c r="I47" s="50">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="50">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="49">
+        <v>2</v>
+      </c>
+      <c r="C48" s="49">
+        <v>2</v>
+      </c>
+      <c r="D48" s="49">
+        <v>0</v>
+      </c>
+      <c r="E48" s="49">
         <v>1</v>
       </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="16">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="44">
-        <f t="shared" si="36"/>
-        <v>0.75</v>
-      </c>
-      <c r="H47" s="44">
-        <f t="shared" si="37"/>
-        <v>0.25</v>
-      </c>
-      <c r="I47" s="44">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="44">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="16">
-        <v>2</v>
-      </c>
-      <c r="C48" s="16">
-        <v>2</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="F48" s="49">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="G48" s="50">
+        <f t="shared" si="43"/>
+        <v>0.4</v>
+      </c>
+      <c r="H48" s="50">
+        <f t="shared" si="44"/>
+        <v>0.4</v>
+      </c>
+      <c r="I48" s="50">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="50">
+        <f t="shared" si="46"/>
+        <v>0.2</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="49">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="50">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="50">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="50">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="50">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="E48" s="16">
-        <v>0</v>
-      </c>
-      <c r="F48" s="16">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="G48" s="44">
-        <f t="shared" si="36"/>
-        <v>0.4</v>
-      </c>
-      <c r="H48" s="44">
-        <f t="shared" si="37"/>
-        <v>0.4</v>
-      </c>
-      <c r="I48" s="44">
-        <f t="shared" si="38"/>
-        <v>0.2</v>
-      </c>
-      <c r="J48" s="44">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" s="16">
-        <v>0</v>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-      <c r="D49" s="16">
-        <v>2</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1</v>
-      </c>
-      <c r="F49" s="16">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="G49" s="44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="44">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="44">
-        <f t="shared" si="38"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J49" s="44">
-        <f t="shared" si="39"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
     </row>
     <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L51" s="43"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
     </row>
     <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L52" s="43"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
     </row>
     <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L53" s="43"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L54" s="43"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
     </row>
     <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L55" s="43"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L56" s="43"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L58" s="40"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L59" s="40"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L60" s="40"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L61" s="40"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L62" s="40"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L63" s="40"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L64" s="40"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
     </row>
     <row r="65" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L65" s="40"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
     </row>
     <row r="66" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
